--- a/pruebas/DataE2.xlsx
+++ b/pruebas/DataE2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d97dfd61da619a5/UNAL FORE/SEMESTRE VIII/SERVOMECANISMOS/PROYECTO ACADEMICO/Servomecanismo2R/pruebas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="11_B831B7D75D1BD7A4F2C3BC217A823830E1067A22" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{232F5D3F-F635-43ED-B83B-CFA1ACD4FFBA}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="11_B831B7D75D1BD7A4F2C3BC217A823830E1067A22" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C440D0AD-B6FD-4480-8C03-29FC222DF853}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2932,8 +2932,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q5002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1130" workbookViewId="0">
-      <selection activeCell="Q1106" sqref="Q1106"/>
+    <sheetView tabSelected="1" topLeftCell="A1091" workbookViewId="0">
+      <selection activeCell="Q1107" sqref="Q1107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
